--- a/data/data_rep.xlsx
+++ b/data/data_rep.xlsx
@@ -5,41 +5,24 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Sebastian\Studium\Master\2_Semester\Advanced_Visualisation\infographic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\infographic\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8910" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="Tabelle4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027" fullCalcOnLoad="1"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
-  <si>
-    <t>Trump</t>
-  </si>
-  <si>
-    <t>Cruz</t>
-  </si>
-  <si>
-    <t>Rubio</t>
-  </si>
-  <si>
-    <t>Kasich</t>
-  </si>
-  <si>
-    <t>Percent</t>
-  </si>
-  <si>
-    <t>Delegates</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="65">
   <si>
     <t>Washington</t>
   </si>
@@ -189,6 +172,51 @@
   </si>
   <si>
     <t>Wyoming</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>trump_percent</t>
+  </si>
+  <si>
+    <t>trump_delegates</t>
+  </si>
+  <si>
+    <t>cruz_percent</t>
+  </si>
+  <si>
+    <t>cruz_delegates</t>
+  </si>
+  <si>
+    <t>rubio_percent</t>
+  </si>
+  <si>
+    <t>rubio_delegates</t>
+  </si>
+  <si>
+    <t>kasich_percent</t>
+  </si>
+  <si>
+    <t>kasich_delegates</t>
+  </si>
+  <si>
+    <t>#EFE74B</t>
+  </si>
+  <si>
+    <t>#542145</t>
+  </si>
+  <si>
+    <t>#20512C</t>
+  </si>
+  <si>
+    <t>202C55</t>
+  </si>
+  <si>
+    <t>#D9D9DA</t>
+  </si>
+  <si>
+    <t>colour</t>
   </si>
 </sst>
 </file>
@@ -259,10 +287,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -583,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:O1048576"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -594,832 +623,874 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="1"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
       <c r="M1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>5</v>
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>44</v>
+      </c>
+      <c r="C2">
+        <v>43.4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <v>21.1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>18.7</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>60</v>
       </c>
       <c r="M2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>33.5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>36.4</v>
+      </c>
+      <c r="F3" s="1">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>15.1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="C4">
+        <v>47.1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>58</v>
+      </c>
+      <c r="E4">
+        <v>24.9</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5">
-        <v>43.4</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="D5" s="1">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E5">
-        <v>21.1</v>
+        <v>30.5</v>
       </c>
       <c r="F5" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G5">
-        <v>18.7</v>
+        <v>24.9</v>
       </c>
       <c r="H5" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I5">
-        <v>4.4000000000000004</v>
+        <v>3.7</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>60</v>
       </c>
       <c r="M5" s="1"/>
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>50</v>
-      </c>
-      <c r="C6">
-        <v>33.5</v>
-      </c>
-      <c r="D6" s="1">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>36.4</v>
-      </c>
-      <c r="F6" s="1">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <v>15.1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M6" s="1"/>
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>36</v>
-      </c>
-      <c r="C7">
-        <v>47.1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>58</v>
-      </c>
-      <c r="E7">
-        <v>24.9</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>10</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="J7" s="1"/>
       <c r="M7" s="1"/>
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>42</v>
-      </c>
-      <c r="C8">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="D8" s="1">
-        <v>16</v>
-      </c>
-      <c r="E8">
-        <v>30.5</v>
-      </c>
-      <c r="F8" s="1">
-        <v>15</v>
-      </c>
-      <c r="G8">
-        <v>24.9</v>
-      </c>
-      <c r="H8" s="1">
-        <v>9</v>
-      </c>
-      <c r="I8">
-        <v>3.7</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M8" s="1"/>
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10">
+        <v>48</v>
+      </c>
+      <c r="C10">
+        <v>45.7</v>
+      </c>
+      <c r="D10">
+        <v>99</v>
+      </c>
+      <c r="E10">
         <v>27</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>6.8</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>60</v>
+      </c>
       <c r="M10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="C11">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="D11" s="1">
+        <v>42</v>
+      </c>
+      <c r="E11">
+        <v>23.6</v>
+      </c>
+      <c r="F11" s="1">
+        <v>18</v>
+      </c>
+      <c r="G11">
+        <v>24.4</v>
+      </c>
+      <c r="H11" s="1">
+        <v>16</v>
+      </c>
+      <c r="I11">
+        <v>5.6</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="C12">
+        <v>43.4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="F12" s="1">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <v>13.2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>45.7</v>
-      </c>
-      <c r="D13">
-        <v>99</v>
+        <v>28.1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>12</v>
       </c>
       <c r="E13">
-        <v>27</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
+        <v>45.4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>20</v>
       </c>
       <c r="G13">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="H13">
+        <v>15.9</v>
+      </c>
+      <c r="H13" s="1">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>6.8</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
+        <v>7.4</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>38.799999999999997</v>
       </c>
-      <c r="D14" s="1">
-        <v>42</v>
+      <c r="D14">
+        <v>53</v>
       </c>
       <c r="E14">
-        <v>23.6</v>
-      </c>
-      <c r="F14" s="1">
-        <v>18</v>
+        <v>30.3</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
       </c>
       <c r="G14">
-        <v>24.4</v>
-      </c>
-      <c r="H14" s="1">
-        <v>16</v>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>5.6</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
+        <v>19.7</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14" t="s">
+        <v>60</v>
       </c>
       <c r="M14" s="1"/>
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>49</v>
-      </c>
-      <c r="C15">
-        <v>43.4</v>
-      </c>
-      <c r="D15" s="1">
-        <v>11</v>
-      </c>
-      <c r="E15">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="F15" s="1">
-        <v>7</v>
-      </c>
-      <c r="G15">
-        <v>13.2</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>10</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M15" s="1"/>
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>28.1</v>
+        <v>27.6</v>
       </c>
       <c r="D16" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>45.4</v>
+        <v>24.3</v>
       </c>
       <c r="F16" s="1">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G16">
-        <v>15.9</v>
+        <v>23.1</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I16">
-        <v>7.4</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K16" t="s">
+        <v>60</v>
       </c>
       <c r="M16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B17">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>23.3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>48.2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>24</v>
+      </c>
+      <c r="G17">
+        <v>16.7</v>
+      </c>
+      <c r="H17" s="1">
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <v>10.7</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="C17">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="D17">
-        <v>53</v>
-      </c>
-      <c r="E17">
-        <v>30.3</v>
-      </c>
-      <c r="F17">
-        <v>9</v>
-      </c>
-      <c r="G17">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>19.7</v>
-      </c>
-      <c r="J17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
       <c r="B18">
-        <v>25</v>
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>35.9</v>
+      </c>
+      <c r="D18" s="1">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>31.6</v>
+      </c>
+      <c r="F18" s="1">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="H18" s="1">
+        <v>7</v>
+      </c>
+      <c r="I18">
+        <v>14.4</v>
+      </c>
+      <c r="J18" s="1">
+        <v>7</v>
+      </c>
+      <c r="K18" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C19">
-        <v>27.6</v>
+        <v>41.4</v>
       </c>
       <c r="D19" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E19">
-        <v>24.3</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="F19" s="1">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G19">
-        <v>23.1</v>
+        <v>11.2</v>
       </c>
       <c r="H19" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I19">
-        <v>9.3000000000000007</v>
+        <v>6.4</v>
       </c>
       <c r="J19" s="1">
-        <v>3</v>
-      </c>
-      <c r="K19" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="M19" s="1"/>
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>23.3</v>
+        <v>32.6</v>
       </c>
       <c r="D20" s="1">
         <v>9</v>
       </c>
       <c r="E20">
-        <v>48.2</v>
+        <v>45.9</v>
       </c>
       <c r="F20" s="1">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G20">
-        <v>16.7</v>
+        <v>8</v>
       </c>
       <c r="H20" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>10.7</v>
+        <v>12.2</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K20" t="s">
+        <v>59</v>
       </c>
       <c r="M20" s="1"/>
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C21">
-        <v>35.9</v>
+        <v>49.3</v>
       </c>
       <c r="D21" s="1">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E21">
-        <v>31.6</v>
+        <v>9.6</v>
       </c>
       <c r="F21" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>16.399999999999999</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I21">
-        <v>14.4</v>
+        <v>18</v>
       </c>
       <c r="J21" s="1">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="K21" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>41.4</v>
+        <v>36.5</v>
       </c>
       <c r="D22" s="1">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E22">
-        <v>37.799999999999997</v>
+        <v>24.9</v>
       </c>
       <c r="F22" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22">
-        <v>11.2</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="H22" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>6.4</v>
+        <v>24.3</v>
       </c>
       <c r="J22" s="1">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="K22" t="s">
+        <v>60</v>
       </c>
       <c r="M22" s="1"/>
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>32.6</v>
+        <v>21.3</v>
       </c>
       <c r="D23" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E23">
-        <v>45.9</v>
+        <v>29</v>
       </c>
       <c r="F23" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23">
-        <v>8</v>
+        <v>36.5</v>
       </c>
       <c r="H23" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I23">
-        <v>12.2</v>
+        <v>5.8</v>
       </c>
       <c r="J23" s="1">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>62</v>
       </c>
       <c r="M23" s="1"/>
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C24">
-        <v>49.3</v>
+        <v>47.3</v>
       </c>
       <c r="D24" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E24">
-        <v>9.6</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="F24" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G24">
-        <v>17.899999999999999</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H24" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>18</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="J24" s="1">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>60</v>
       </c>
       <c r="M24" s="1"/>
       <c r="O24" s="1"/>
     </row>
     <row r="25" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C25">
-        <v>36.5</v>
-      </c>
-      <c r="D25" s="1">
+        <v>40.9</v>
+      </c>
+      <c r="D25">
         <v>25</v>
       </c>
       <c r="E25">
-        <v>24.9</v>
-      </c>
-      <c r="F25" s="1">
-        <v>17</v>
+        <v>40.700000000000003</v>
+      </c>
+      <c r="F25">
+        <v>15</v>
       </c>
       <c r="G25">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="H25" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>24.3</v>
-      </c>
-      <c r="J25" s="1">
-        <v>17</v>
+        <v>9.9</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>60</v>
       </c>
       <c r="M25" s="1"/>
       <c r="O25" s="1"/>
     </row>
     <row r="26" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="C26">
-        <v>21.3</v>
-      </c>
-      <c r="D26" s="1">
-        <v>8</v>
-      </c>
-      <c r="E26">
-        <v>29</v>
-      </c>
-      <c r="F26" s="1">
-        <v>13</v>
-      </c>
-      <c r="G26">
-        <v>36.5</v>
-      </c>
-      <c r="H26" s="1">
-        <v>17</v>
-      </c>
-      <c r="I26">
-        <v>5.8</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="1"/>
       <c r="O26" s="1"/>
     </row>
     <row r="27" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>46</v>
-      </c>
-      <c r="C27">
-        <v>47.3</v>
-      </c>
-      <c r="D27" s="1">
-        <v>25</v>
-      </c>
-      <c r="E27">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="F27" s="1">
         <v>15</v>
       </c>
-      <c r="G27">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="J27" s="1">
-        <v>0</v>
-      </c>
+      <c r="D27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="J27" s="1"/>
       <c r="M27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C28">
-        <v>40.9</v>
-      </c>
-      <c r="D28">
-        <v>25</v>
+        <v>45.9</v>
+      </c>
+      <c r="D28" s="1">
+        <v>14</v>
       </c>
       <c r="E28">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="F28">
-        <v>15</v>
+        <v>21.4</v>
+      </c>
+      <c r="F28" s="1">
+        <v>6</v>
       </c>
       <c r="G28">
-        <v>6.1</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
+        <v>23.9</v>
+      </c>
+      <c r="H28" s="1">
+        <v>7</v>
       </c>
       <c r="I28">
-        <v>9.9</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+        <v>3.6</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="D29" s="1">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>11.7</v>
+      </c>
+      <c r="F29" s="1">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>10.6</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>15.8</v>
+      </c>
+      <c r="J29" s="1">
+        <v>4</v>
+      </c>
+      <c r="K29" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>15</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="J30" s="1"/>
+        <v>26</v>
+      </c>
       <c r="M30" s="1"/>
       <c r="O30" s="1"/>
     </row>
     <row r="31" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>23</v>
-      </c>
-      <c r="C31">
-        <v>45.9</v>
-      </c>
-      <c r="D31" s="1">
-        <v>14</v>
-      </c>
-      <c r="E31">
-        <v>21.4</v>
-      </c>
-      <c r="F31" s="1">
-        <v>6</v>
-      </c>
-      <c r="G31">
-        <v>23.9</v>
-      </c>
-      <c r="H31" s="1">
-        <v>7</v>
-      </c>
-      <c r="I31">
-        <v>3.6</v>
-      </c>
-      <c r="J31" s="1">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="M31" s="1"/>
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>10</v>
-      </c>
-      <c r="C32">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="D32" s="1">
-        <v>11</v>
-      </c>
-      <c r="E32">
-        <v>11.7</v>
-      </c>
-      <c r="F32" s="1">
-        <v>3</v>
-      </c>
-      <c r="G32">
-        <v>10.6</v>
-      </c>
-      <c r="H32" s="1">
-        <v>2</v>
-      </c>
-      <c r="I32">
-        <v>15.8</v>
-      </c>
-      <c r="J32" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K32" s="2"/>
       <c r="M32" s="1"/>
@@ -1427,465 +1498,477 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>26</v>
+        <v>40</v>
+      </c>
+      <c r="C33">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="D33">
+        <v>29</v>
+      </c>
+      <c r="E33">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="F33">
+        <v>27</v>
+      </c>
+      <c r="G33">
+        <v>7.7</v>
+      </c>
+      <c r="H33">
+        <v>6</v>
+      </c>
+      <c r="I33">
+        <v>12.7</v>
+      </c>
+      <c r="J33">
+        <v>9</v>
+      </c>
+      <c r="K33" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>24</v>
+      </c>
+      <c r="C35">
+        <v>35.6</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>13.1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>2.9</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>46.8</v>
+      </c>
+      <c r="J35" s="1">
+        <v>66</v>
+      </c>
+      <c r="K35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
         <v>37</v>
       </c>
-      <c r="B35">
+      <c r="C36">
+        <v>28.3</v>
+      </c>
+      <c r="D36" s="1">
+        <v>13</v>
+      </c>
+      <c r="E36">
+        <v>34.4</v>
+      </c>
+      <c r="F36" s="1">
+        <v>15</v>
+      </c>
+      <c r="G36">
+        <v>26</v>
+      </c>
+      <c r="H36" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36">
-        <v>40</v>
-      </c>
-      <c r="C36">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="D36">
-        <v>29</v>
-      </c>
-      <c r="E36">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="F36">
-        <v>27</v>
-      </c>
-      <c r="G36">
-        <v>7.7</v>
-      </c>
-      <c r="H36">
-        <v>6</v>
-      </c>
       <c r="I36">
-        <v>12.7</v>
-      </c>
-      <c r="J36">
-        <v>9</v>
+        <v>3.6</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>24</v>
-      </c>
-      <c r="C38">
-        <v>35.6</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>13.1</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>2.9</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>46.8</v>
-      </c>
-      <c r="J38" s="1">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="M38" s="1"/>
       <c r="O38" s="1"/>
     </row>
     <row r="39" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>37</v>
-      </c>
-      <c r="C39">
-        <v>28.3</v>
-      </c>
-      <c r="D39" s="1">
-        <v>13</v>
-      </c>
-      <c r="E39">
-        <v>34.4</v>
-      </c>
-      <c r="F39" s="1">
-        <v>15</v>
-      </c>
-      <c r="G39">
-        <v>26</v>
-      </c>
-      <c r="H39" s="1">
-        <v>12</v>
-      </c>
-      <c r="I39">
-        <v>3.6</v>
-      </c>
-      <c r="J39" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>8</v>
+        <v>43</v>
+      </c>
+      <c r="C40">
+        <v>32.5</v>
+      </c>
+      <c r="D40" s="1">
+        <v>50</v>
+      </c>
+      <c r="E40">
+        <v>22.3</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>22.5</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>7.6</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>20</v>
+        <v>39</v>
+      </c>
+      <c r="C42">
+        <v>38.9</v>
+      </c>
+      <c r="D42" s="1">
+        <v>33</v>
+      </c>
+      <c r="E42">
+        <v>24.7</v>
+      </c>
+      <c r="F42" s="1">
+        <v>16</v>
+      </c>
+      <c r="G42">
+        <v>21.2</v>
+      </c>
+      <c r="H42" s="1">
+        <v>9</v>
+      </c>
+      <c r="I42">
+        <v>5.3</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C43">
-        <v>32.5</v>
+        <v>26.7</v>
       </c>
       <c r="D43" s="1">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E43">
-        <v>22.3</v>
+        <v>43.8</v>
       </c>
       <c r="F43" s="1">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="G43">
-        <v>22.5</v>
+        <v>17.7</v>
       </c>
       <c r="H43" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I43">
-        <v>7.6</v>
+        <v>4.2</v>
       </c>
       <c r="J43" s="1">
         <v>0</v>
       </c>
-      <c r="K43" s="2"/>
+      <c r="K43" t="s">
+        <v>59</v>
+      </c>
       <c r="M43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="C44">
+        <v>14</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>69.2</v>
+      </c>
+      <c r="F44" s="1">
+        <v>40</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>16.8</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C45">
-        <v>38.9</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="D45" s="1">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E45">
-        <v>24.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F45" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>21.2</v>
+        <v>19.3</v>
       </c>
       <c r="H45" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>5.3</v>
+        <v>30.4</v>
       </c>
       <c r="J45" s="1">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="K45" t="s">
+        <v>60</v>
       </c>
       <c r="M45" s="1"/>
       <c r="O45" s="1"/>
     </row>
     <row r="46" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C46">
-        <v>26.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="D46" s="1">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E46">
-        <v>43.8</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="F46" s="1">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="G46">
-        <v>17.7</v>
+        <v>31.9</v>
       </c>
       <c r="H46" s="1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I46">
-        <v>4.2</v>
+        <v>9.4</v>
       </c>
       <c r="J46" s="1">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K46" t="s">
+        <v>60</v>
       </c>
       <c r="M46" s="1"/>
       <c r="O46" s="1"/>
     </row>
     <row r="47" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>22</v>
-      </c>
-      <c r="C47">
-        <v>14</v>
-      </c>
-      <c r="D47" s="1">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>69.2</v>
-      </c>
-      <c r="F47" s="1">
-        <v>40</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47" s="1">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>16.8</v>
-      </c>
-      <c r="J47" s="1">
-        <v>0</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="J47" s="1"/>
       <c r="M47" s="1"/>
       <c r="O47" s="1"/>
     </row>
     <row r="48" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>11</v>
-      </c>
-      <c r="C48">
-        <v>32.700000000000003</v>
-      </c>
-      <c r="D48" s="1">
-        <v>8</v>
-      </c>
-      <c r="E48">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="F48" s="1">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>19.3</v>
-      </c>
-      <c r="H48" s="1">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>30.4</v>
-      </c>
-      <c r="J48" s="1">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="M48" s="1"/>
       <c r="O48" s="1"/>
     </row>
     <row r="49" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C49">
-        <v>34.700000000000003</v>
+        <v>35.1</v>
       </c>
       <c r="D49" s="1">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E49">
-        <v>16.899999999999999</v>
+        <v>48.2</v>
       </c>
       <c r="F49" s="1">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="G49">
-        <v>31.9</v>
+        <v>0</v>
       </c>
       <c r="H49" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>9.4</v>
+        <v>14.1</v>
       </c>
       <c r="J49" s="1">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>59</v>
       </c>
       <c r="M49" s="1"/>
       <c r="O49" s="1"/>
     </row>
     <row r="50" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>32</v>
-      </c>
-      <c r="D50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="J50" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="C50">
+        <v>7.2</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>66.3</v>
+      </c>
+      <c r="F50" s="1">
+        <v>9</v>
+      </c>
+      <c r="G50">
+        <v>19.5</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>59</v>
+      </c>
       <c r="M50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51">
-        <v>28</v>
-      </c>
-    </row>
     <row r="52" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52">
-        <v>7</v>
-      </c>
-      <c r="C52">
-        <v>35.1</v>
-      </c>
-      <c r="D52" s="1">
-        <v>6</v>
-      </c>
-      <c r="E52">
-        <v>48.2</v>
-      </c>
-      <c r="F52" s="1">
-        <v>36</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52" s="1">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>14.1</v>
-      </c>
-      <c r="J52" s="1">
-        <v>0</v>
-      </c>
       <c r="M52" s="1"/>
       <c r="O52" s="1"/>
     </row>
     <row r="53" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53">
-        <v>13</v>
-      </c>
-      <c r="C53">
-        <v>7.2</v>
-      </c>
-      <c r="D53" s="1">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>66.3</v>
-      </c>
-      <c r="F53" s="1">
-        <v>9</v>
-      </c>
-      <c r="G53">
-        <v>19.5</v>
-      </c>
-      <c r="H53" s="1">
-        <v>1</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53" s="1">
-        <v>0</v>
-      </c>
       <c r="M53" s="1"/>
       <c r="O53" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A6:B53">
+  <sortState ref="A1:J53">
     <sortCondition ref="A5:A53"/>
   </sortState>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
@@ -1898,16 +1981,1415 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AY9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>44</v>
+      </c>
+      <c r="D1">
+        <v>50</v>
+      </c>
+      <c r="E1">
+        <v>36</v>
+      </c>
+      <c r="F1">
+        <v>42</v>
+      </c>
+      <c r="G1">
+        <v>21</v>
+      </c>
+      <c r="H1">
+        <v>27</v>
+      </c>
+      <c r="I1">
+        <v>19</v>
+      </c>
+      <c r="J1">
+        <v>31</v>
+      </c>
+      <c r="K1">
+        <v>48</v>
+      </c>
+      <c r="L1">
+        <v>45</v>
+      </c>
+      <c r="M1">
+        <v>49</v>
+      </c>
+      <c r="N1">
+        <v>2</v>
+      </c>
+      <c r="O1">
+        <v>17</v>
+      </c>
+      <c r="P1">
+        <v>25</v>
+      </c>
+      <c r="Q1">
+        <v>14</v>
+      </c>
+      <c r="R1">
+        <v>30</v>
+      </c>
+      <c r="S1">
+        <v>34</v>
+      </c>
+      <c r="T1">
+        <v>47</v>
+      </c>
+      <c r="U1">
+        <v>5</v>
+      </c>
+      <c r="V1">
+        <v>16</v>
+      </c>
+      <c r="W1">
+        <v>6</v>
+      </c>
+      <c r="X1">
+        <v>4</v>
+      </c>
+      <c r="Y1">
+        <v>46</v>
+      </c>
+      <c r="Z1">
+        <v>29</v>
+      </c>
+      <c r="AA1">
+        <v>1</v>
+      </c>
+      <c r="AB1">
+        <v>15</v>
+      </c>
+      <c r="AC1">
+        <v>23</v>
+      </c>
+      <c r="AD1">
+        <v>10</v>
+      </c>
+      <c r="AE1">
+        <v>26</v>
+      </c>
+      <c r="AF1">
+        <v>38</v>
+      </c>
+      <c r="AG1">
+        <v>12</v>
+      </c>
+      <c r="AH1">
+        <v>40</v>
+      </c>
+      <c r="AI1">
+        <v>3</v>
+      </c>
+      <c r="AJ1">
+        <v>24</v>
+      </c>
+      <c r="AK1">
+        <v>37</v>
+      </c>
+      <c r="AL1">
+        <v>8</v>
+      </c>
+      <c r="AM1">
+        <v>18</v>
+      </c>
+      <c r="AN1">
+        <v>20</v>
+      </c>
+      <c r="AO1">
+        <v>43</v>
+      </c>
+      <c r="AP1">
+        <v>9</v>
+      </c>
+      <c r="AQ1">
+        <v>39</v>
+      </c>
+      <c r="AR1">
+        <v>41</v>
+      </c>
+      <c r="AS1">
+        <v>22</v>
+      </c>
+      <c r="AT1">
+        <v>11</v>
+      </c>
+      <c r="AU1">
+        <v>33</v>
+      </c>
+      <c r="AV1">
+        <v>32</v>
+      </c>
+      <c r="AW1">
+        <v>28</v>
+      </c>
+      <c r="AX1">
+        <v>7</v>
+      </c>
+      <c r="AY1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43.4</v>
+      </c>
+      <c r="D2" s="3">
+        <v>33.5</v>
+      </c>
+      <c r="E2" s="3">
+        <v>47.1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>45.7</v>
+      </c>
+      <c r="L2" s="3">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="M2" s="3">
+        <v>43.4</v>
+      </c>
+      <c r="N2" s="3">
+        <v>28.1</v>
+      </c>
+      <c r="O2" s="3">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>27.6</v>
+      </c>
+      <c r="R2" s="3">
+        <v>23.3</v>
+      </c>
+      <c r="S2" s="3">
+        <v>35.9</v>
+      </c>
+      <c r="T2" s="3">
+        <v>41.4</v>
+      </c>
+      <c r="U2" s="3">
+        <v>32.6</v>
+      </c>
+      <c r="V2" s="3">
+        <v>49.3</v>
+      </c>
+      <c r="W2" s="3">
+        <v>36.5</v>
+      </c>
+      <c r="X2" s="3">
+        <v>21.3</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>47.3</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>40.9</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>45.9</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="3">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="3">
+        <v>35.6</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>28.3</v>
+      </c>
+      <c r="AL2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="3">
+        <v>32.5</v>
+      </c>
+      <c r="AP2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="3">
+        <v>38.9</v>
+      </c>
+      <c r="AR2" s="3">
+        <v>26.7</v>
+      </c>
+      <c r="AS2" s="3">
+        <v>14</v>
+      </c>
+      <c r="AT2" s="3">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="AU2" s="3">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="AV2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="3">
+        <v>35.1</v>
+      </c>
+      <c r="AY2" s="3">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>36</v>
+      </c>
+      <c r="D3" s="3">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3">
+        <v>58</v>
+      </c>
+      <c r="F3" s="3">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>99</v>
+      </c>
+      <c r="L3" s="3">
+        <v>42</v>
+      </c>
+      <c r="M3" s="3">
+        <v>11</v>
+      </c>
+      <c r="N3" s="3">
+        <v>12</v>
+      </c>
+      <c r="O3" s="3">
+        <v>53</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>8</v>
+      </c>
+      <c r="R3" s="3">
+        <v>9</v>
+      </c>
+      <c r="S3" s="3">
+        <v>17</v>
+      </c>
+      <c r="T3" s="3">
+        <v>18</v>
+      </c>
+      <c r="U3" s="3">
+        <v>9</v>
+      </c>
+      <c r="V3" s="3">
+        <v>22</v>
+      </c>
+      <c r="W3" s="3">
+        <v>25</v>
+      </c>
+      <c r="X3" s="3">
+        <v>8</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>14</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>11</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>29</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>13</v>
+      </c>
+      <c r="AL3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="3">
+        <v>50</v>
+      </c>
+      <c r="AP3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="3">
+        <v>33</v>
+      </c>
+      <c r="AR3" s="3">
+        <v>48</v>
+      </c>
+      <c r="AS3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="3">
+        <v>8</v>
+      </c>
+      <c r="AU3" s="3">
+        <v>17</v>
+      </c>
+      <c r="AV3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="3">
+        <v>6</v>
+      </c>
+      <c r="AY3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>21.1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>36.4</v>
+      </c>
+      <c r="E4" s="3">
+        <v>24.9</v>
+      </c>
+      <c r="F4" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>27</v>
+      </c>
+      <c r="L4" s="3">
+        <v>23.6</v>
+      </c>
+      <c r="M4" s="3">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="N4" s="3">
+        <v>45.4</v>
+      </c>
+      <c r="O4" s="3">
+        <v>30.3</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>24.3</v>
+      </c>
+      <c r="R4" s="3">
+        <v>48.2</v>
+      </c>
+      <c r="S4" s="3">
+        <v>31.6</v>
+      </c>
+      <c r="T4" s="3">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="U4" s="3">
+        <v>45.9</v>
+      </c>
+      <c r="V4" s="3">
+        <v>9.6</v>
+      </c>
+      <c r="W4" s="3">
+        <v>24.9</v>
+      </c>
+      <c r="X4" s="3">
+        <v>29</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>21.4</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>11.7</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>13.1</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>34.4</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="3">
+        <v>22.3</v>
+      </c>
+      <c r="AP4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="3">
+        <v>24.7</v>
+      </c>
+      <c r="AR4" s="3">
+        <v>43.8</v>
+      </c>
+      <c r="AS4" s="3">
+        <v>69.2</v>
+      </c>
+      <c r="AT4" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AU4" s="3">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AV4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="3">
+        <v>48.2</v>
+      </c>
+      <c r="AY4" s="3">
+        <v>66.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>18</v>
+      </c>
+      <c r="M5" s="3">
+        <v>7</v>
+      </c>
+      <c r="N5" s="3">
+        <v>20</v>
+      </c>
+      <c r="O5" s="3">
+        <v>9</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>7</v>
+      </c>
+      <c r="R5" s="3">
+        <v>24</v>
+      </c>
+      <c r="S5" s="3">
+        <v>15</v>
+      </c>
+      <c r="T5" s="3">
+        <v>18</v>
+      </c>
+      <c r="U5" s="3">
+        <v>12</v>
+      </c>
+      <c r="V5" s="3">
+        <v>4</v>
+      </c>
+      <c r="W5" s="3">
+        <v>17</v>
+      </c>
+      <c r="X5" s="3">
+        <v>13</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>15</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>15</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>6</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>27</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>15</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="3">
+        <v>16</v>
+      </c>
+      <c r="AR5" s="3">
+        <v>104</v>
+      </c>
+      <c r="AS5" s="3">
+        <v>40</v>
+      </c>
+      <c r="AT5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="3">
+        <v>8</v>
+      </c>
+      <c r="AV5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="3">
+        <v>36</v>
+      </c>
+      <c r="AY5" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>18.7</v>
+      </c>
+      <c r="D6" s="3">
+        <v>15.1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>24.9</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="L6" s="3">
+        <v>24.4</v>
+      </c>
+      <c r="M6" s="3">
+        <v>13.2</v>
+      </c>
+      <c r="N6" s="3">
+        <v>15.9</v>
+      </c>
+      <c r="O6" s="3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>23.1</v>
+      </c>
+      <c r="R6" s="3">
+        <v>16.7</v>
+      </c>
+      <c r="S6" s="3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="T6" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="U6" s="3">
+        <v>8</v>
+      </c>
+      <c r="V6" s="3">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="W6" s="3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="X6" s="3">
+        <v>36.5</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>23.9</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>10.6</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>7.7</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="AK6" s="3">
+        <v>26</v>
+      </c>
+      <c r="AL6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="AP6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="3">
+        <v>21.2</v>
+      </c>
+      <c r="AR6" s="3">
+        <v>17.7</v>
+      </c>
+      <c r="AS6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="3">
+        <v>19.3</v>
+      </c>
+      <c r="AU6" s="3">
+        <v>31.9</v>
+      </c>
+      <c r="AV6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="3">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>9</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>16</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>7</v>
+      </c>
+      <c r="R7" s="3">
+        <v>6</v>
+      </c>
+      <c r="S7" s="3">
+        <v>7</v>
+      </c>
+      <c r="T7" s="3">
+        <v>5</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3">
+        <v>8</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0</v>
+      </c>
+      <c r="X7" s="3">
+        <v>17</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>7</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>6</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="3">
+        <v>12</v>
+      </c>
+      <c r="AL7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="3">
+        <v>9</v>
+      </c>
+      <c r="AR7" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="3">
+        <v>16</v>
+      </c>
+      <c r="AV7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E8" s="3">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="L8" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="M8" s="3">
+        <v>10</v>
+      </c>
+      <c r="N8" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="O8" s="3">
+        <v>19.7</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="R8" s="3">
+        <v>10.7</v>
+      </c>
+      <c r="S8" s="3">
+        <v>14.4</v>
+      </c>
+      <c r="T8" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="U8" s="3">
+        <v>12.2</v>
+      </c>
+      <c r="V8" s="3">
+        <v>18</v>
+      </c>
+      <c r="W8" s="3">
+        <v>24.3</v>
+      </c>
+      <c r="X8" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>15.8</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>12.7</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>46.8</v>
+      </c>
+      <c r="AK8" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="AP8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="AR8" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="AS8" s="3">
+        <v>16.8</v>
+      </c>
+      <c r="AT8" s="3">
+        <v>30.4</v>
+      </c>
+      <c r="AU8" s="3">
+        <v>9.4</v>
+      </c>
+      <c r="AV8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="AY8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3">
+        <v>1</v>
+      </c>
+      <c r="S9" s="3">
+        <v>7</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>2</v>
+      </c>
+      <c r="V9" s="3">
+        <v>8</v>
+      </c>
+      <c r="W9" s="3">
+        <v>17</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="3">
+        <v>9</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="3">
+        <v>66</v>
+      </c>
+      <c r="AK9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="3">
+        <v>8</v>
+      </c>
+      <c r="AU9" s="3">
+        <v>5</v>
+      </c>
+      <c r="AV9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CSeite &amp;P</oddFooter>
@@ -1917,19 +3399,997 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AX50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="AI1" workbookViewId="0">
+      <selection sqref="A1:AX2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.75" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>44</v>
+      </c>
+      <c r="C1">
+        <v>50</v>
+      </c>
+      <c r="D1">
+        <v>36</v>
+      </c>
+      <c r="E1">
+        <v>42</v>
+      </c>
+      <c r="F1">
+        <v>21</v>
+      </c>
+      <c r="G1">
+        <v>27</v>
+      </c>
+      <c r="H1">
+        <v>19</v>
+      </c>
+      <c r="I1">
+        <v>31</v>
+      </c>
+      <c r="J1">
+        <v>48</v>
+      </c>
+      <c r="K1">
+        <v>45</v>
+      </c>
+      <c r="L1">
+        <v>49</v>
+      </c>
+      <c r="M1">
+        <v>2</v>
+      </c>
+      <c r="N1">
+        <v>17</v>
+      </c>
+      <c r="O1">
+        <v>25</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>30</v>
+      </c>
+      <c r="R1">
+        <v>34</v>
+      </c>
+      <c r="S1">
+        <v>47</v>
+      </c>
+      <c r="T1">
+        <v>5</v>
+      </c>
+      <c r="U1">
+        <v>16</v>
+      </c>
+      <c r="V1">
+        <v>6</v>
+      </c>
+      <c r="W1">
+        <v>4</v>
+      </c>
+      <c r="X1">
+        <v>46</v>
+      </c>
+      <c r="Y1">
+        <v>29</v>
+      </c>
+      <c r="Z1">
+        <v>1</v>
+      </c>
+      <c r="AA1">
+        <v>15</v>
+      </c>
+      <c r="AB1">
+        <v>23</v>
+      </c>
+      <c r="AC1">
+        <v>10</v>
+      </c>
+      <c r="AD1">
+        <v>26</v>
+      </c>
+      <c r="AE1">
+        <v>38</v>
+      </c>
+      <c r="AF1">
+        <v>12</v>
+      </c>
+      <c r="AG1">
+        <v>40</v>
+      </c>
+      <c r="AH1">
+        <v>3</v>
+      </c>
+      <c r="AI1">
+        <v>24</v>
+      </c>
+      <c r="AJ1">
+        <v>37</v>
+      </c>
+      <c r="AK1">
+        <v>8</v>
+      </c>
+      <c r="AL1">
+        <v>18</v>
+      </c>
+      <c r="AM1">
+        <v>20</v>
+      </c>
+      <c r="AN1">
+        <v>43</v>
+      </c>
+      <c r="AO1">
+        <v>9</v>
+      </c>
+      <c r="AP1">
+        <v>39</v>
+      </c>
+      <c r="AQ1">
+        <v>41</v>
+      </c>
+      <c r="AR1">
+        <v>22</v>
+      </c>
+      <c r="AS1">
+        <v>11</v>
+      </c>
+      <c r="AT1">
+        <v>33</v>
+      </c>
+      <c r="AU1">
+        <v>32</v>
+      </c>
+      <c r="AV1">
+        <v>28</v>
+      </c>
+      <c r="AW1">
+        <v>7</v>
+      </c>
+      <c r="AX1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" t="s">
+        <v>60</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="T2" t="s">
+        <v>59</v>
+      </c>
+      <c r="U2" t="s">
+        <v>60</v>
+      </c>
+      <c r="V2" t="s">
+        <v>60</v>
+      </c>
+      <c r="W2" t="s">
+        <v>62</v>
+      </c>
+      <c r="X2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+    </row>
+    <row r="6" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="1"/>
+      <c r="AU6" s="1"/>
+      <c r="AW6" s="1"/>
+      <c r="AX6" s="1"/>
+    </row>
+    <row r="8" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
+    </row>
+    <row r="10" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+      <c r="AW10" s="1"/>
+      <c r="AX10" s="1"/>
+    </row>
+    <row r="12" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+      <c r="D12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+      <c r="D13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="16" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+      <c r="D16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="4:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="D17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="4:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="D18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="4:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="D19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="4:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="D20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="4:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="D21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="4:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="D22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="4:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="D23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="4:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="D24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="27" spans="4:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="D27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="4:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="D28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="4:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="D29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="32" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="2"/>
+    </row>
+    <row r="35" spans="4:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="D35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="4:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="D36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="40" spans="4:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="D40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="42" spans="4:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="D42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="4:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="D43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="4:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="D44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="4:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="D45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="4:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="D46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="4:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="D47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="49" spans="4:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="D49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="4:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="D50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="J50" s="1"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:AX2">
+    <sortCondition descending="1" ref="A1"/>
+  </sortState>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CSeite &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AY48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AY2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+      <c r="Z1">
+        <v>24</v>
+      </c>
+      <c r="AA1">
+        <v>25</v>
+      </c>
+      <c r="AB1">
+        <v>26</v>
+      </c>
+      <c r="AC1">
+        <v>27</v>
+      </c>
+      <c r="AD1">
+        <v>28</v>
+      </c>
+      <c r="AE1">
+        <v>29</v>
+      </c>
+      <c r="AF1">
+        <v>30</v>
+      </c>
+      <c r="AG1">
+        <v>31</v>
+      </c>
+      <c r="AH1">
+        <v>32</v>
+      </c>
+      <c r="AI1">
+        <v>33</v>
+      </c>
+      <c r="AJ1">
+        <v>34</v>
+      </c>
+      <c r="AK1">
+        <v>36</v>
+      </c>
+      <c r="AL1">
+        <v>37</v>
+      </c>
+      <c r="AM1">
+        <v>38</v>
+      </c>
+      <c r="AN1">
+        <v>39</v>
+      </c>
+      <c r="AO1">
+        <v>40</v>
+      </c>
+      <c r="AP1">
+        <v>41</v>
+      </c>
+      <c r="AQ1">
+        <v>42</v>
+      </c>
+      <c r="AR1">
+        <v>43</v>
+      </c>
+      <c r="AS1">
+        <v>44</v>
+      </c>
+      <c r="AT1">
+        <v>45</v>
+      </c>
+      <c r="AU1">
+        <v>46</v>
+      </c>
+      <c r="AV1">
+        <v>47</v>
+      </c>
+      <c r="AW1">
+        <v>48</v>
+      </c>
+      <c r="AX1">
+        <v>49</v>
+      </c>
+      <c r="AY1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R2" t="s">
+        <v>60</v>
+      </c>
+      <c r="S2" t="s">
+        <v>60</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" s="3"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48" s="2"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B51">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>